--- a/data/models/questions-skill-model2b_leak.xlsx
+++ b/data/models/questions-skill-model2b_leak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/bn-based-learning-networks-with-noisy-gates/data/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/CAT-unplugged/data/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF23B693-9505-A849-BC67-86D3BDCBD287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8BFE8-C3C6-8742-8296-9B920F65B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
+    <workbookView xWindow="-2560" yWindow="-20320" windowWidth="30720" windowHeight="18700" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
   <sheets>
     <sheet name="question-skills-basic" sheetId="17" r:id="rId1"/>
@@ -102,12 +102,6 @@
     <t>copy</t>
   </si>
   <si>
-    <t>fillEmpty</t>
-  </si>
-  <si>
-    <t>paint square monochromatic</t>
-  </si>
-  <si>
     <t>Has the pupil solved the schema with 0D VSF?</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Has the pupil solved the schema with 2D V?</t>
-  </si>
-  <si>
-    <t>paintDot</t>
   </si>
   <si>
     <t>E1</t>
@@ -168,21 +159,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>paint row column monochromatic</t>
-  </si>
-  <si>
-    <t>paint diagonal monochromatic</t>
-  </si>
-  <si>
-    <t>paint L monochromatic</t>
-  </si>
-  <si>
-    <t>paint zigzag monochromatic</t>
-  </si>
-  <si>
-    <t>paint row column polychromatic</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -192,7 +168,31 @@
     <t>0D V</t>
   </si>
   <si>
-    <t>paint diagonal or zigzag polychromatic</t>
+    <t>paint_dot</t>
+  </si>
+  <si>
+    <t>fill_empty</t>
+  </si>
+  <si>
+    <t>paint_row_column_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_square_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_l_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_zigzag_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_row_column_polychromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_or_zigzag_polychromatic</t>
   </si>
 </sst>
 </file>
@@ -689,24 +689,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,6 +704,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,6 +721,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B7A501-D8DC-5145-BD21-F7991AE9B547}">
   <dimension ref="A1:MN462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,44 +1076,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:352" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="71" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="72"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:352" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="18"/>
@@ -1152,33 +1152,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:352" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+    <row r="3" spans="1:352" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="74"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="22" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>52</v>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="27" t="s">
         <v>5</v>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
@@ -1547,38 +1547,38 @@
       <c r="MN3" s="11"/>
     </row>
     <row r="4" spans="1:352" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="H4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="M4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>12</v>
@@ -1608,11 +1608,11 @@
         <v>19</v>
       </c>
       <c r="W4" s="63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:352" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68">
+      <c r="A5" s="76">
         <v>1</v>
       </c>
       <c r="B5" s="15">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C5" s="31" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D5" s="55">
         <v>0.9</v>
@@ -2013,13 +2013,13 @@
       <c r="MN5" s="5"/>
     </row>
     <row r="6" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D6" s="56">
         <v>0</v>
@@ -2083,13 +2083,13 @@
       </c>
     </row>
     <row r="7" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D7" s="56">
         <v>0</v>
@@ -2153,13 +2153,13 @@
       </c>
     </row>
     <row r="8" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="15">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D8" s="56">
         <v>0</v>
@@ -2223,13 +2223,13 @@
       </c>
     </row>
     <row r="9" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D9" s="56">
         <v>0</v>
@@ -2293,13 +2293,13 @@
       </c>
     </row>
     <row r="10" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="15">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
@@ -2363,13 +2363,13 @@
       </c>
     </row>
     <row r="11" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="15">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D11" s="56">
         <v>0</v>
@@ -2433,13 +2433,13 @@
       </c>
     </row>
     <row r="12" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="15">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D12" s="56">
         <v>0</v>
@@ -2503,13 +2503,13 @@
       </c>
     </row>
     <row r="13" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="15">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D13" s="56">
         <v>0</v>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="14" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="15">
         <v>10</v>
       </c>
@@ -2643,12 +2643,12 @@
       </c>
     </row>
     <row r="15" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="15">
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="56">
         <v>0.9</v>
@@ -2712,12 +2712,12 @@
       </c>
     </row>
     <row r="16" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="15">
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="56">
         <v>0.9</v>
@@ -2781,12 +2781,12 @@
       </c>
     </row>
     <row r="17" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="15">
         <v>13</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="56">
         <v>0.9</v>
@@ -2850,12 +2850,12 @@
       </c>
     </row>
     <row r="18" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="15">
         <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="56">
         <v>0.9</v>
@@ -2919,12 +2919,12 @@
       </c>
     </row>
     <row r="19" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="15">
         <v>15</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="56">
         <v>0.9</v>
@@ -2988,12 +2988,12 @@
       </c>
     </row>
     <row r="20" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="15">
         <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="56">
         <v>0.9</v>
@@ -3057,12 +3057,12 @@
       </c>
     </row>
     <row r="21" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="15">
         <v>17</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="56">
         <v>0.9</v>
@@ -3126,12 +3126,12 @@
       </c>
     </row>
     <row r="22" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="15">
         <v>18</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="56">
         <v>0.9</v>
@@ -3195,12 +3195,12 @@
       </c>
     </row>
     <row r="23" spans="1:352" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="37">
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="57">
         <v>0.9</v>
@@ -3264,7 +3264,7 @@
       </c>
     </row>
     <row r="24" spans="1:352" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69">
+      <c r="A24" s="77">
         <v>2</v>
       </c>
       <c r="B24" s="15">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D24" s="56">
         <v>0.85</v>
@@ -3665,13 +3665,13 @@
       <c r="MN24" s="5"/>
     </row>
     <row r="25" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="15">
         <v>2</v>
       </c>
       <c r="C25" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D25" s="56">
         <v>0</v>
@@ -3735,13 +3735,13 @@
       </c>
     </row>
     <row r="26" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="15">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D26" s="56">
         <v>0</v>
@@ -3805,13 +3805,13 @@
       </c>
     </row>
     <row r="27" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="69"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="15">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D27" s="56">
         <v>0</v>
@@ -3875,13 +3875,13 @@
       </c>
     </row>
     <row r="28" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="15">
         <v>5</v>
       </c>
       <c r="C28" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D28" s="56">
         <v>0</v>
@@ -3945,13 +3945,13 @@
       </c>
     </row>
     <row r="29" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="15">
         <v>6</v>
       </c>
       <c r="C29" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D29" s="56">
         <v>0</v>
@@ -4015,13 +4015,13 @@
       </c>
     </row>
     <row r="30" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="15">
         <v>7</v>
       </c>
       <c r="C30" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D30" s="56">
         <v>0</v>
@@ -4085,13 +4085,13 @@
       </c>
     </row>
     <row r="31" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="15">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D31" s="56">
         <v>0</v>
@@ -4155,13 +4155,13 @@
       </c>
     </row>
     <row r="32" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="15">
         <v>9</v>
       </c>
       <c r="C32" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D32" s="56">
         <v>0</v>
@@ -4225,7 +4225,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="15">
         <v>10</v>
       </c>
@@ -4295,12 +4295,12 @@
       </c>
     </row>
     <row r="34" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="15">
         <v>11</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="56">
         <v>0.85</v>
@@ -4364,12 +4364,12 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="15">
         <v>12</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="56">
         <v>0.85</v>
@@ -4433,12 +4433,12 @@
       </c>
     </row>
     <row r="36" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="15">
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="56">
         <v>0.85</v>
@@ -4502,12 +4502,12 @@
       </c>
     </row>
     <row r="37" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="15">
         <v>14</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="56">
         <v>0.85</v>
@@ -4571,12 +4571,12 @@
       </c>
     </row>
     <row r="38" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="15">
         <v>15</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="56">
         <v>0.85</v>
@@ -4640,12 +4640,12 @@
       </c>
     </row>
     <row r="39" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="15">
         <v>16</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="56">
         <v>0.85</v>
@@ -4709,12 +4709,12 @@
       </c>
     </row>
     <row r="40" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="15">
         <v>17</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="56">
         <v>0.85</v>
@@ -4778,12 +4778,12 @@
       </c>
     </row>
     <row r="41" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="15">
         <v>18</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="56">
         <v>0.85</v>
@@ -4847,12 +4847,12 @@
       </c>
     </row>
     <row r="42" spans="1:23" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="37">
         <v>19</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="57">
         <v>0.85</v>
@@ -4916,7 +4916,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
+      <c r="A43" s="76">
         <v>3</v>
       </c>
       <c r="B43" s="15">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C43" s="31" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D43" s="55">
         <v>0.8</v>
@@ -4988,13 +4988,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="15">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D44" s="56">
         <v>0</v>
@@ -5058,13 +5058,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="15">
         <v>3</v>
       </c>
       <c r="C45" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D45" s="56">
         <v>0</v>
@@ -5128,13 +5128,13 @@
       </c>
     </row>
     <row r="46" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="15">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D46" s="56">
         <v>0</v>
@@ -5198,13 +5198,13 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="15">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D47" s="56">
         <v>0</v>
@@ -5268,13 +5268,13 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="15">
         <v>6</v>
       </c>
       <c r="C48" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D48" s="56">
         <v>0</v>
@@ -5338,13 +5338,13 @@
       </c>
     </row>
     <row r="49" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="15">
         <v>7</v>
       </c>
       <c r="C49" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D49" s="56">
         <v>0</v>
@@ -5408,13 +5408,13 @@
       </c>
     </row>
     <row r="50" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="69"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="15">
         <v>8</v>
       </c>
       <c r="C50" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D50" s="56">
         <v>0</v>
@@ -5478,13 +5478,13 @@
       </c>
     </row>
     <row r="51" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="15">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D51" s="56">
         <v>0</v>
@@ -5548,7 +5548,7 @@
       </c>
     </row>
     <row r="52" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="15">
         <v>10</v>
       </c>
@@ -5618,12 +5618,12 @@
       </c>
     </row>
     <row r="53" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="69"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="15">
         <v>11</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="56">
         <v>0.8</v>
@@ -5687,12 +5687,12 @@
       </c>
     </row>
     <row r="54" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="15">
         <v>12</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="56">
         <v>0.8</v>
@@ -5756,12 +5756,12 @@
       </c>
     </row>
     <row r="55" spans="1:352" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="69"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="15">
         <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="56">
         <v>0.8</v>
@@ -6154,12 +6154,12 @@
       <c r="MN55" s="5"/>
     </row>
     <row r="56" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="15">
         <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="56">
         <v>0.8</v>
@@ -6223,12 +6223,12 @@
       </c>
     </row>
     <row r="57" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A57" s="69"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="15">
         <v>15</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="56">
         <v>0.8</v>
@@ -6292,12 +6292,12 @@
       </c>
     </row>
     <row r="58" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="15">
         <v>16</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="56">
         <v>0.8</v>
@@ -6361,12 +6361,12 @@
       </c>
     </row>
     <row r="59" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A59" s="69"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="15">
         <v>17</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="56">
         <v>0.8</v>
@@ -6430,12 +6430,12 @@
       </c>
     </row>
     <row r="60" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="15">
         <v>18</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="56">
         <v>0.8</v>
@@ -6499,12 +6499,12 @@
       </c>
     </row>
     <row r="61" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="37">
         <v>19</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="57">
         <v>0.8</v>
@@ -6568,7 +6568,7 @@
       </c>
     </row>
     <row r="62" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A62" s="69">
+      <c r="A62" s="77">
         <v>4</v>
       </c>
       <c r="B62" s="15">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D62" s="55">
         <v>0.8</v>
@@ -6640,13 +6640,13 @@
       </c>
     </row>
     <row r="63" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A63" s="69"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="15">
         <v>2</v>
       </c>
       <c r="C63" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D63" s="56">
         <v>0</v>
@@ -6710,13 +6710,13 @@
       </c>
     </row>
     <row r="64" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A64" s="69"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="15">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D64" s="56">
         <v>0</v>
@@ -6780,13 +6780,13 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="15">
         <v>4</v>
       </c>
       <c r="C65" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D65" s="56">
         <v>0</v>
@@ -6850,13 +6850,13 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="15">
         <v>5</v>
       </c>
       <c r="C66" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D66" s="56">
         <v>0</v>
@@ -6920,13 +6920,13 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="69"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="15">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D67" s="56">
         <v>0</v>
@@ -6990,13 +6990,13 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="69"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="15">
         <v>7</v>
       </c>
       <c r="C68" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D68" s="56">
         <v>0</v>
@@ -7060,13 +7060,13 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="69"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="15">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D69" s="56">
         <v>0</v>
@@ -7130,13 +7130,13 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="69"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="15">
         <v>9</v>
       </c>
       <c r="C70" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D70" s="56">
         <v>0</v>
@@ -7200,7 +7200,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="69"/>
+      <c r="A71" s="77"/>
       <c r="B71" s="15">
         <v>10</v>
       </c>
@@ -7270,12 +7270,12 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="69"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="15">
         <v>11</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="56">
         <v>0.8</v>
@@ -7339,12 +7339,12 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="69"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="15">
         <v>12</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="56">
         <v>0.8</v>
@@ -7408,12 +7408,12 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="69"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="15">
         <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="56">
         <v>0.8</v>
@@ -7477,12 +7477,12 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="69"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="15">
         <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D75" s="56">
         <v>0.8</v>
@@ -7546,12 +7546,12 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="69"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="15">
         <v>15</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D76" s="56">
         <v>0.8</v>
@@ -7615,12 +7615,12 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="69"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="15">
         <v>16</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="56">
         <v>0.8</v>
@@ -7684,12 +7684,12 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="69"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="15">
         <v>17</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" s="56">
         <v>0.8</v>
@@ -7753,12 +7753,12 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="69"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="15">
         <v>18</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="56">
         <v>0.8</v>
@@ -7822,12 +7822,12 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="37">
         <v>19</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" s="57">
         <v>0.8</v>
@@ -7891,7 +7891,7 @@
       </c>
     </row>
     <row r="81" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A81" s="69">
+      <c r="A81" s="77">
         <v>5</v>
       </c>
       <c r="B81" s="15">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D81" s="55">
         <v>0.75</v>
@@ -7963,13 +7963,13 @@
       </c>
     </row>
     <row r="82" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A82" s="69"/>
+      <c r="A82" s="77"/>
       <c r="B82" s="15">
         <v>2</v>
       </c>
       <c r="C82" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D82" s="56">
         <v>0</v>
@@ -8033,13 +8033,13 @@
       </c>
     </row>
     <row r="83" spans="1:352" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="69"/>
+      <c r="A83" s="77"/>
       <c r="B83" s="15">
         <v>3</v>
       </c>
       <c r="C83" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D83" s="56">
         <v>0</v>
@@ -8432,13 +8432,13 @@
       <c r="MN83" s="5"/>
     </row>
     <row r="84" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A84" s="69"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="15">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D84" s="56">
         <v>0</v>
@@ -8502,13 +8502,13 @@
       </c>
     </row>
     <row r="85" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A85" s="69"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="15">
         <v>5</v>
       </c>
       <c r="C85" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D85" s="56">
         <v>0</v>
@@ -8572,13 +8572,13 @@
       </c>
     </row>
     <row r="86" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A86" s="69"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="15">
         <v>6</v>
       </c>
       <c r="C86" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D86" s="56">
         <v>0</v>
@@ -8642,13 +8642,13 @@
       </c>
     </row>
     <row r="87" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A87" s="69"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="15">
         <v>7</v>
       </c>
       <c r="C87" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D87" s="56">
         <v>0</v>
@@ -8712,13 +8712,13 @@
       </c>
     </row>
     <row r="88" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A88" s="69"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="15">
         <v>8</v>
       </c>
       <c r="C88" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D88" s="56">
         <v>0</v>
@@ -8782,13 +8782,13 @@
       </c>
     </row>
     <row r="89" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A89" s="69"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="15">
         <v>9</v>
       </c>
       <c r="C89" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D89" s="56">
         <v>0</v>
@@ -8852,7 +8852,7 @@
       </c>
     </row>
     <row r="90" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A90" s="69"/>
+      <c r="A90" s="77"/>
       <c r="B90" s="15">
         <v>10</v>
       </c>
@@ -8922,12 +8922,12 @@
       </c>
     </row>
     <row r="91" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A91" s="69"/>
+      <c r="A91" s="77"/>
       <c r="B91" s="15">
         <v>11</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D91" s="56">
         <v>0.75</v>
@@ -8991,12 +8991,12 @@
       </c>
     </row>
     <row r="92" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A92" s="69"/>
+      <c r="A92" s="77"/>
       <c r="B92" s="15">
         <v>12</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" s="56">
         <v>0.75</v>
@@ -9060,12 +9060,12 @@
       </c>
     </row>
     <row r="93" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A93" s="69"/>
+      <c r="A93" s="77"/>
       <c r="B93" s="15">
         <v>13</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D93" s="56">
         <v>0.75</v>
@@ -9129,12 +9129,12 @@
       </c>
     </row>
     <row r="94" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A94" s="69"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="15">
         <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="56">
         <v>0.75</v>
@@ -9198,12 +9198,12 @@
       </c>
     </row>
     <row r="95" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A95" s="69"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="15">
         <v>15</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95" s="56">
         <v>0.75</v>
@@ -9267,12 +9267,12 @@
       </c>
     </row>
     <row r="96" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A96" s="69"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="15">
         <v>16</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="56">
         <v>0.75</v>
@@ -9336,12 +9336,12 @@
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A97" s="69"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="15">
         <v>17</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" s="56">
         <v>0.75</v>
@@ -9405,12 +9405,12 @@
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="69"/>
+      <c r="A98" s="77"/>
       <c r="B98" s="15">
         <v>18</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="56">
         <v>0.75</v>
@@ -9474,12 +9474,12 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="70"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="37">
         <v>19</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="57">
         <v>0.75</v>
@@ -9543,7 +9543,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="69">
+      <c r="A100" s="77">
         <v>6</v>
       </c>
       <c r="B100" s="15">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D100" s="55">
         <v>0.75</v>
@@ -9615,13 +9615,13 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="69"/>
+      <c r="A101" s="77"/>
       <c r="B101" s="15">
         <v>2</v>
       </c>
       <c r="C101" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D101" s="56">
         <v>0</v>
@@ -9685,13 +9685,13 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="69"/>
+      <c r="A102" s="77"/>
       <c r="B102" s="15">
         <v>3</v>
       </c>
       <c r="C102" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D102" s="56">
         <v>0</v>
@@ -9755,13 +9755,13 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="69"/>
+      <c r="A103" s="77"/>
       <c r="B103" s="15">
         <v>4</v>
       </c>
       <c r="C103" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D103" s="56">
         <v>0</v>
@@ -9825,13 +9825,13 @@
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="69"/>
+      <c r="A104" s="77"/>
       <c r="B104" s="15">
         <v>5</v>
       </c>
       <c r="C104" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D104" s="56">
         <v>0</v>
@@ -9895,13 +9895,13 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="69"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="15">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D105" s="56">
         <v>0</v>
@@ -9965,13 +9965,13 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="69"/>
+      <c r="A106" s="77"/>
       <c r="B106" s="15">
         <v>7</v>
       </c>
       <c r="C106" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D106" s="56">
         <v>0</v>
@@ -10035,13 +10035,13 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="69"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="15">
         <v>8</v>
       </c>
       <c r="C107" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D107" s="56">
         <v>0</v>
@@ -10105,13 +10105,13 @@
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A108" s="69"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="15">
         <v>9</v>
       </c>
       <c r="C108" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D108" s="56">
         <v>0</v>
@@ -10175,7 +10175,7 @@
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A109" s="69"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="15">
         <v>10</v>
       </c>
@@ -10245,12 +10245,12 @@
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" s="69"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="15">
         <v>11</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D110" s="56">
         <v>0.75</v>
@@ -10314,12 +10314,12 @@
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A111" s="69"/>
+      <c r="A111" s="77"/>
       <c r="B111" s="15">
         <v>12</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D111" s="56">
         <v>0.75</v>
@@ -10383,12 +10383,12 @@
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A112" s="69"/>
+      <c r="A112" s="77"/>
       <c r="B112" s="15">
         <v>13</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="56">
         <v>0.75</v>
@@ -10452,12 +10452,12 @@
       </c>
     </row>
     <row r="113" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A113" s="69"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="15">
         <v>14</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D113" s="56">
         <v>0.75</v>
@@ -10521,12 +10521,12 @@
       </c>
     </row>
     <row r="114" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A114" s="69"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="15">
         <v>15</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D114" s="56">
         <v>0.75</v>
@@ -10590,12 +10590,12 @@
       </c>
     </row>
     <row r="115" spans="1:352" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="69"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="15">
         <v>16</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="56">
         <v>0.75</v>
@@ -10988,12 +10988,12 @@
       <c r="MN115" s="5"/>
     </row>
     <row r="116" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A116" s="69"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="15">
         <v>17</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="56">
         <v>0.75</v>
@@ -11057,12 +11057,12 @@
       </c>
     </row>
     <row r="117" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A117" s="69"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="15">
         <v>18</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" s="56">
         <v>0.75</v>
@@ -11126,12 +11126,12 @@
       </c>
     </row>
     <row r="118" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="37">
         <v>19</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D118" s="57">
         <v>0.75</v>
@@ -11195,7 +11195,7 @@
       </c>
     </row>
     <row r="119" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A119" s="69">
+      <c r="A119" s="77">
         <v>7</v>
       </c>
       <c r="B119" s="15">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="C119" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D119" s="55">
         <v>0.7</v>
@@ -11267,13 +11267,13 @@
       </c>
     </row>
     <row r="120" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A120" s="69"/>
+      <c r="A120" s="77"/>
       <c r="B120" s="15">
         <v>2</v>
       </c>
       <c r="C120" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D120" s="56">
         <v>0</v>
@@ -11337,13 +11337,13 @@
       </c>
     </row>
     <row r="121" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A121" s="69"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="15">
         <v>3</v>
       </c>
       <c r="C121" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D121" s="56">
         <v>0</v>
@@ -11407,13 +11407,13 @@
       </c>
     </row>
     <row r="122" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A122" s="69"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="15">
         <v>4</v>
       </c>
       <c r="C122" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D122" s="56">
         <v>0</v>
@@ -11477,13 +11477,13 @@
       </c>
     </row>
     <row r="123" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A123" s="69"/>
+      <c r="A123" s="77"/>
       <c r="B123" s="15">
         <v>5</v>
       </c>
       <c r="C123" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D123" s="56">
         <v>0</v>
@@ -11547,13 +11547,13 @@
       </c>
     </row>
     <row r="124" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A124" s="69"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="15">
         <v>6</v>
       </c>
       <c r="C124" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D124" s="56">
         <v>0</v>
@@ -11617,13 +11617,13 @@
       </c>
     </row>
     <row r="125" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A125" s="69"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="15">
         <v>7</v>
       </c>
       <c r="C125" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D125" s="56">
         <v>0</v>
@@ -11687,13 +11687,13 @@
       </c>
     </row>
     <row r="126" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A126" s="69"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="15">
         <v>8</v>
       </c>
       <c r="C126" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D126" s="56">
         <v>0</v>
@@ -11757,13 +11757,13 @@
       </c>
     </row>
     <row r="127" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A127" s="69"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="15">
         <v>9</v>
       </c>
       <c r="C127" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D127" s="56">
         <v>0</v>
@@ -11827,7 +11827,7 @@
       </c>
     </row>
     <row r="128" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A128" s="69"/>
+      <c r="A128" s="77"/>
       <c r="B128" s="15">
         <v>10</v>
       </c>
@@ -11897,12 +11897,12 @@
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A129" s="69"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="15">
         <v>11</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D129" s="56">
         <v>0.7</v>
@@ -11966,12 +11966,12 @@
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A130" s="69"/>
+      <c r="A130" s="77"/>
       <c r="B130" s="15">
         <v>12</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D130" s="56">
         <v>0.7</v>
@@ -12035,12 +12035,12 @@
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A131" s="69"/>
+      <c r="A131" s="77"/>
       <c r="B131" s="15">
         <v>13</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D131" s="56">
         <v>0.7</v>
@@ -12104,12 +12104,12 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A132" s="69"/>
+      <c r="A132" s="77"/>
       <c r="B132" s="15">
         <v>14</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D132" s="56">
         <v>0.7</v>
@@ -12173,12 +12173,12 @@
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A133" s="69"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="15">
         <v>15</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133" s="56">
         <v>0.7</v>
@@ -12242,12 +12242,12 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A134" s="69"/>
+      <c r="A134" s="77"/>
       <c r="B134" s="15">
         <v>16</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="56">
         <v>0.7</v>
@@ -12311,12 +12311,12 @@
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A135" s="69"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="15">
         <v>17</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="56">
         <v>0.7</v>
@@ -12380,12 +12380,12 @@
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A136" s="69"/>
+      <c r="A136" s="77"/>
       <c r="B136" s="15">
         <v>18</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="56">
         <v>0.7</v>
@@ -12449,12 +12449,12 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="70"/>
+      <c r="A137" s="78"/>
       <c r="B137" s="37">
         <v>19</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D137" s="57">
         <v>0.7</v>
@@ -12518,7 +12518,7 @@
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A138" s="69">
+      <c r="A138" s="77">
         <v>8</v>
       </c>
       <c r="B138" s="15">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="C138" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D138" s="55">
         <v>0.7</v>
@@ -12590,13 +12590,13 @@
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A139" s="69"/>
+      <c r="A139" s="77"/>
       <c r="B139" s="15">
         <v>2</v>
       </c>
       <c r="C139" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D139" s="56">
         <v>0</v>
@@ -12660,13 +12660,13 @@
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A140" s="69"/>
+      <c r="A140" s="77"/>
       <c r="B140" s="15">
         <v>3</v>
       </c>
       <c r="C140" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D140" s="56">
         <v>0</v>
@@ -12730,13 +12730,13 @@
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A141" s="69"/>
+      <c r="A141" s="77"/>
       <c r="B141" s="15">
         <v>4</v>
       </c>
       <c r="C141" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D141" s="56">
         <v>0</v>
@@ -12800,13 +12800,13 @@
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A142" s="69"/>
+      <c r="A142" s="77"/>
       <c r="B142" s="15">
         <v>5</v>
       </c>
       <c r="C142" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D142" s="56">
         <v>0</v>
@@ -12870,13 +12870,13 @@
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A143" s="69"/>
+      <c r="A143" s="77"/>
       <c r="B143" s="15">
         <v>6</v>
       </c>
       <c r="C143" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D143" s="56">
         <v>0</v>
@@ -12940,13 +12940,13 @@
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A144" s="69"/>
+      <c r="A144" s="77"/>
       <c r="B144" s="15">
         <v>7</v>
       </c>
       <c r="C144" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D144" s="56">
         <v>0</v>
@@ -13010,13 +13010,13 @@
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A145" s="69"/>
+      <c r="A145" s="77"/>
       <c r="B145" s="15">
         <v>8</v>
       </c>
       <c r="C145" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D145" s="56">
         <v>0</v>
@@ -13080,13 +13080,13 @@
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A146" s="69"/>
+      <c r="A146" s="77"/>
       <c r="B146" s="15">
         <v>9</v>
       </c>
       <c r="C146" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D146" s="56">
         <v>0</v>
@@ -13150,7 +13150,7 @@
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A147" s="69"/>
+      <c r="A147" s="77"/>
       <c r="B147" s="15">
         <v>10</v>
       </c>
@@ -13220,12 +13220,12 @@
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A148" s="69"/>
+      <c r="A148" s="77"/>
       <c r="B148" s="15">
         <v>11</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D148" s="56">
         <v>0.7</v>
@@ -13289,12 +13289,12 @@
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A149" s="69"/>
+      <c r="A149" s="77"/>
       <c r="B149" s="15">
         <v>12</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D149" s="56">
         <v>0.7</v>
@@ -13358,12 +13358,12 @@
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A150" s="69"/>
+      <c r="A150" s="77"/>
       <c r="B150" s="15">
         <v>13</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D150" s="56">
         <v>0.7</v>
@@ -13427,12 +13427,12 @@
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A151" s="69"/>
+      <c r="A151" s="77"/>
       <c r="B151" s="15">
         <v>14</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D151" s="56">
         <v>0.7</v>
@@ -13496,12 +13496,12 @@
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A152" s="69"/>
+      <c r="A152" s="77"/>
       <c r="B152" s="15">
         <v>15</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D152" s="56">
         <v>0.7</v>
@@ -13565,12 +13565,12 @@
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A153" s="69"/>
+      <c r="A153" s="77"/>
       <c r="B153" s="15">
         <v>16</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="56">
         <v>0.7</v>
@@ -13634,12 +13634,12 @@
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A154" s="69"/>
+      <c r="A154" s="77"/>
       <c r="B154" s="15">
         <v>17</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="56">
         <v>0.7</v>
@@ -13703,12 +13703,12 @@
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A155" s="69"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="15">
         <v>18</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D155" s="56">
         <v>0.7</v>
@@ -13772,12 +13772,12 @@
       </c>
     </row>
     <row r="156" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="70"/>
+      <c r="A156" s="78"/>
       <c r="B156" s="37">
         <v>19</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D156" s="57">
         <v>0.7</v>
@@ -13841,7 +13841,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A157" s="69">
+      <c r="A157" s="77">
         <v>9</v>
       </c>
       <c r="B157" s="15">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="C157" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D157" s="55">
         <v>0.7</v>
@@ -13913,13 +13913,13 @@
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A158" s="69"/>
+      <c r="A158" s="77"/>
       <c r="B158" s="15">
         <v>2</v>
       </c>
       <c r="C158" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D158" s="56">
         <v>0</v>
@@ -13983,13 +13983,13 @@
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A159" s="69"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="15">
         <v>3</v>
       </c>
       <c r="C159" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D159" s="56">
         <v>0</v>
@@ -14053,13 +14053,13 @@
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A160" s="69"/>
+      <c r="A160" s="77"/>
       <c r="B160" s="15">
         <v>4</v>
       </c>
       <c r="C160" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D160" s="56">
         <v>0</v>
@@ -14123,13 +14123,13 @@
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A161" s="69"/>
+      <c r="A161" s="77"/>
       <c r="B161" s="15">
         <v>5</v>
       </c>
       <c r="C161" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D161" s="56">
         <v>0</v>
@@ -14193,13 +14193,13 @@
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A162" s="69"/>
+      <c r="A162" s="77"/>
       <c r="B162" s="15">
         <v>6</v>
       </c>
       <c r="C162" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D162" s="56">
         <v>0</v>
@@ -14263,13 +14263,13 @@
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A163" s="69"/>
+      <c r="A163" s="77"/>
       <c r="B163" s="15">
         <v>7</v>
       </c>
       <c r="C163" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D163" s="56">
         <v>0</v>
@@ -14333,13 +14333,13 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A164" s="69"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="15">
         <v>8</v>
       </c>
       <c r="C164" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D164" s="56">
         <v>0</v>
@@ -14403,13 +14403,13 @@
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A165" s="69"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="15">
         <v>9</v>
       </c>
       <c r="C165" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D165" s="56">
         <v>0</v>
@@ -14473,7 +14473,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A166" s="69"/>
+      <c r="A166" s="77"/>
       <c r="B166" s="15">
         <v>10</v>
       </c>
@@ -14543,12 +14543,12 @@
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A167" s="69"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="15">
         <v>11</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D167" s="56">
         <v>0.7</v>
@@ -14612,12 +14612,12 @@
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A168" s="69"/>
+      <c r="A168" s="77"/>
       <c r="B168" s="15">
         <v>12</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D168" s="56">
         <v>0.7</v>
@@ -14681,12 +14681,12 @@
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A169" s="69"/>
+      <c r="A169" s="77"/>
       <c r="B169" s="15">
         <v>13</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D169" s="56">
         <v>0.7</v>
@@ -14750,12 +14750,12 @@
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A170" s="69"/>
+      <c r="A170" s="77"/>
       <c r="B170" s="15">
         <v>14</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D170" s="56">
         <v>0.7</v>
@@ -14819,12 +14819,12 @@
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A171" s="69"/>
+      <c r="A171" s="77"/>
       <c r="B171" s="15">
         <v>15</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D171" s="56">
         <v>0.7</v>
@@ -14888,12 +14888,12 @@
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A172" s="69"/>
+      <c r="A172" s="77"/>
       <c r="B172" s="15">
         <v>16</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="56">
         <v>0.7</v>
@@ -14957,12 +14957,12 @@
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A173" s="69"/>
+      <c r="A173" s="77"/>
       <c r="B173" s="15">
         <v>17</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D173" s="56">
         <v>0.7</v>
@@ -15026,12 +15026,12 @@
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A174" s="69"/>
+      <c r="A174" s="77"/>
       <c r="B174" s="15">
         <v>18</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D174" s="56">
         <v>0.7</v>
@@ -15095,12 +15095,12 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="70"/>
+      <c r="A175" s="78"/>
       <c r="B175" s="37">
         <v>19</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D175" s="57">
         <v>0.7</v>
@@ -15164,7 +15164,7 @@
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A176" s="69">
+      <c r="A176" s="77">
         <v>10</v>
       </c>
       <c r="B176" s="15">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="C176" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D176" s="55">
         <v>0.65</v>
@@ -15236,13 +15236,13 @@
       </c>
     </row>
     <row r="177" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A177" s="69"/>
+      <c r="A177" s="77"/>
       <c r="B177" s="15">
         <v>2</v>
       </c>
       <c r="C177" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D177" s="56">
         <v>0</v>
@@ -15306,13 +15306,13 @@
       </c>
     </row>
     <row r="178" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A178" s="69"/>
+      <c r="A178" s="77"/>
       <c r="B178" s="15">
         <v>3</v>
       </c>
       <c r="C178" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D178" s="56">
         <v>0</v>
@@ -15376,13 +15376,13 @@
       </c>
     </row>
     <row r="179" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A179" s="69"/>
+      <c r="A179" s="77"/>
       <c r="B179" s="15">
         <v>4</v>
       </c>
       <c r="C179" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D179" s="56">
         <v>0</v>
@@ -15446,13 +15446,13 @@
       </c>
     </row>
     <row r="180" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A180" s="69"/>
+      <c r="A180" s="77"/>
       <c r="B180" s="15">
         <v>5</v>
       </c>
       <c r="C180" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D180" s="56">
         <v>0</v>
@@ -15516,13 +15516,13 @@
       </c>
     </row>
     <row r="181" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A181" s="69"/>
+      <c r="A181" s="77"/>
       <c r="B181" s="15">
         <v>6</v>
       </c>
       <c r="C181" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D181" s="56">
         <v>0</v>
@@ -15586,13 +15586,13 @@
       </c>
     </row>
     <row r="182" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A182" s="69"/>
+      <c r="A182" s="77"/>
       <c r="B182" s="15">
         <v>7</v>
       </c>
       <c r="C182" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D182" s="56">
         <v>0</v>
@@ -15656,13 +15656,13 @@
       </c>
     </row>
     <row r="183" spans="1:352" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="69"/>
+      <c r="A183" s="77"/>
       <c r="B183" s="15">
         <v>8</v>
       </c>
       <c r="C183" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D183" s="56">
         <v>0</v>
@@ -16055,13 +16055,13 @@
       <c r="MN183" s="5"/>
     </row>
     <row r="184" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A184" s="69"/>
+      <c r="A184" s="77"/>
       <c r="B184" s="15">
         <v>9</v>
       </c>
       <c r="C184" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D184" s="56">
         <v>0</v>
@@ -16125,7 +16125,7 @@
       </c>
     </row>
     <row r="185" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A185" s="69"/>
+      <c r="A185" s="77"/>
       <c r="B185" s="15">
         <v>10</v>
       </c>
@@ -16195,12 +16195,12 @@
       </c>
     </row>
     <row r="186" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A186" s="69"/>
+      <c r="A186" s="77"/>
       <c r="B186" s="15">
         <v>11</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D186" s="56">
         <v>0.65</v>
@@ -16264,12 +16264,12 @@
       </c>
     </row>
     <row r="187" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A187" s="69"/>
+      <c r="A187" s="77"/>
       <c r="B187" s="15">
         <v>12</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" s="56">
         <v>0.65</v>
@@ -16333,12 +16333,12 @@
       </c>
     </row>
     <row r="188" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A188" s="69"/>
+      <c r="A188" s="77"/>
       <c r="B188" s="15">
         <v>13</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D188" s="56">
         <v>0.65</v>
@@ -16402,12 +16402,12 @@
       </c>
     </row>
     <row r="189" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A189" s="69"/>
+      <c r="A189" s="77"/>
       <c r="B189" s="15">
         <v>14</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D189" s="56">
         <v>0.65</v>
@@ -16471,12 +16471,12 @@
       </c>
     </row>
     <row r="190" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A190" s="69"/>
+      <c r="A190" s="77"/>
       <c r="B190" s="15">
         <v>15</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D190" s="56">
         <v>0.65</v>
@@ -16540,12 +16540,12 @@
       </c>
     </row>
     <row r="191" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A191" s="69"/>
+      <c r="A191" s="77"/>
       <c r="B191" s="15">
         <v>16</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="56">
         <v>0.65</v>
@@ -16609,12 +16609,12 @@
       </c>
     </row>
     <row r="192" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A192" s="69"/>
+      <c r="A192" s="77"/>
       <c r="B192" s="15">
         <v>17</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D192" s="56">
         <v>0.65</v>
@@ -16678,12 +16678,12 @@
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A193" s="69"/>
+      <c r="A193" s="77"/>
       <c r="B193" s="15">
         <v>18</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D193" s="56">
         <v>0.65</v>
@@ -16747,12 +16747,12 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="70"/>
+      <c r="A194" s="78"/>
       <c r="B194" s="37">
         <v>19</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D194" s="57">
         <v>0.65</v>
@@ -16816,7 +16816,7 @@
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A195" s="69">
+      <c r="A195" s="77">
         <v>11</v>
       </c>
       <c r="B195" s="15">
@@ -16824,7 +16824,7 @@
       </c>
       <c r="C195" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D195" s="55">
         <v>0.6</v>
@@ -16888,13 +16888,13 @@
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A196" s="69"/>
+      <c r="A196" s="77"/>
       <c r="B196" s="15">
         <v>2</v>
       </c>
       <c r="C196" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D196" s="56">
         <v>0</v>
@@ -16958,13 +16958,13 @@
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A197" s="69"/>
+      <c r="A197" s="77"/>
       <c r="B197" s="15">
         <v>3</v>
       </c>
       <c r="C197" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D197" s="56">
         <v>0</v>
@@ -17028,13 +17028,13 @@
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A198" s="69"/>
+      <c r="A198" s="77"/>
       <c r="B198" s="15">
         <v>4</v>
       </c>
       <c r="C198" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D198" s="56">
         <v>0</v>
@@ -17098,13 +17098,13 @@
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A199" s="69"/>
+      <c r="A199" s="77"/>
       <c r="B199" s="15">
         <v>5</v>
       </c>
       <c r="C199" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D199" s="56">
         <v>0</v>
@@ -17168,13 +17168,13 @@
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A200" s="69"/>
+      <c r="A200" s="77"/>
       <c r="B200" s="15">
         <v>6</v>
       </c>
       <c r="C200" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D200" s="56">
         <v>0</v>
@@ -17238,13 +17238,13 @@
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A201" s="69"/>
+      <c r="A201" s="77"/>
       <c r="B201" s="15">
         <v>7</v>
       </c>
       <c r="C201" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D201" s="56">
         <v>0</v>
@@ -17308,13 +17308,13 @@
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A202" s="69"/>
+      <c r="A202" s="77"/>
       <c r="B202" s="15">
         <v>8</v>
       </c>
       <c r="C202" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D202" s="56">
         <v>0</v>
@@ -17378,13 +17378,13 @@
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A203" s="69"/>
+      <c r="A203" s="77"/>
       <c r="B203" s="15">
         <v>9</v>
       </c>
       <c r="C203" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D203" s="56">
         <v>0</v>
@@ -17448,7 +17448,7 @@
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A204" s="69"/>
+      <c r="A204" s="77"/>
       <c r="B204" s="15">
         <v>10</v>
       </c>
@@ -17518,12 +17518,12 @@
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A205" s="69"/>
+      <c r="A205" s="77"/>
       <c r="B205" s="15">
         <v>11</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D205" s="56">
         <v>0.6</v>
@@ -17587,12 +17587,12 @@
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A206" s="69"/>
+      <c r="A206" s="77"/>
       <c r="B206" s="15">
         <v>12</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D206" s="56">
         <v>0.6</v>
@@ -17656,12 +17656,12 @@
       </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A207" s="69"/>
+      <c r="A207" s="77"/>
       <c r="B207" s="15">
         <v>13</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D207" s="56">
         <v>0.6</v>
@@ -17725,12 +17725,12 @@
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A208" s="69"/>
+      <c r="A208" s="77"/>
       <c r="B208" s="15">
         <v>14</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D208" s="56">
         <v>0.6</v>
@@ -17794,12 +17794,12 @@
       </c>
     </row>
     <row r="209" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A209" s="69"/>
+      <c r="A209" s="77"/>
       <c r="B209" s="15">
         <v>15</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D209" s="56">
         <v>0.6</v>
@@ -17863,12 +17863,12 @@
       </c>
     </row>
     <row r="210" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A210" s="69"/>
+      <c r="A210" s="77"/>
       <c r="B210" s="15">
         <v>16</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="56">
         <v>0.6</v>
@@ -17932,12 +17932,12 @@
       </c>
     </row>
     <row r="211" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A211" s="69"/>
+      <c r="A211" s="77"/>
       <c r="B211" s="15">
         <v>17</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D211" s="56">
         <v>0.6</v>
@@ -18001,12 +18001,12 @@
       </c>
     </row>
     <row r="212" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A212" s="69"/>
+      <c r="A212" s="77"/>
       <c r="B212" s="15">
         <v>18</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D212" s="56">
         <v>0.6</v>
@@ -18070,12 +18070,12 @@
       </c>
     </row>
     <row r="213" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="70"/>
+      <c r="A213" s="78"/>
       <c r="B213" s="37">
         <v>19</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D213" s="57">
         <v>0.6</v>
@@ -18139,7 +18139,7 @@
       </c>
     </row>
     <row r="214" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A214" s="69">
+      <c r="A214" s="77">
         <v>12</v>
       </c>
       <c r="B214" s="15">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="C214" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D214" s="55">
         <v>0.55000000000000004</v>
@@ -18211,13 +18211,13 @@
       </c>
     </row>
     <row r="215" spans="1:352" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="69"/>
+      <c r="A215" s="77"/>
       <c r="B215" s="15">
         <v>2</v>
       </c>
       <c r="C215" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D215" s="56">
         <v>0</v>
@@ -18610,13 +18610,13 @@
       <c r="MN215" s="5"/>
     </row>
     <row r="216" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A216" s="69"/>
+      <c r="A216" s="77"/>
       <c r="B216" s="15">
         <v>3</v>
       </c>
       <c r="C216" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D216" s="56">
         <v>0</v>
@@ -18680,13 +18680,13 @@
       </c>
     </row>
     <row r="217" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A217" s="69"/>
+      <c r="A217" s="77"/>
       <c r="B217" s="15">
         <v>4</v>
       </c>
       <c r="C217" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D217" s="56">
         <v>0</v>
@@ -18750,13 +18750,13 @@
       </c>
     </row>
     <row r="218" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A218" s="69"/>
+      <c r="A218" s="77"/>
       <c r="B218" s="15">
         <v>5</v>
       </c>
       <c r="C218" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D218" s="56">
         <v>0</v>
@@ -18820,13 +18820,13 @@
       </c>
     </row>
     <row r="219" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A219" s="69"/>
+      <c r="A219" s="77"/>
       <c r="B219" s="15">
         <v>6</v>
       </c>
       <c r="C219" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D219" s="56">
         <v>0</v>
@@ -18890,13 +18890,13 @@
       </c>
     </row>
     <row r="220" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A220" s="69"/>
+      <c r="A220" s="77"/>
       <c r="B220" s="15">
         <v>7</v>
       </c>
       <c r="C220" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D220" s="56">
         <v>0</v>
@@ -18960,13 +18960,13 @@
       </c>
     </row>
     <row r="221" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A221" s="69"/>
+      <c r="A221" s="77"/>
       <c r="B221" s="15">
         <v>8</v>
       </c>
       <c r="C221" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D221" s="56">
         <v>0</v>
@@ -19030,13 +19030,13 @@
       </c>
     </row>
     <row r="222" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A222" s="69"/>
+      <c r="A222" s="77"/>
       <c r="B222" s="15">
         <v>9</v>
       </c>
       <c r="C222" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D222" s="56">
         <v>0</v>
@@ -19100,7 +19100,7 @@
       </c>
     </row>
     <row r="223" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A223" s="69"/>
+      <c r="A223" s="77"/>
       <c r="B223" s="15">
         <v>10</v>
       </c>
@@ -19170,12 +19170,12 @@
       </c>
     </row>
     <row r="224" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A224" s="69"/>
+      <c r="A224" s="77"/>
       <c r="B224" s="15">
         <v>11</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" s="56">
         <v>0.55000000000000004</v>
@@ -19239,12 +19239,12 @@
       </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A225" s="69"/>
+      <c r="A225" s="77"/>
       <c r="B225" s="15">
         <v>12</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D225" s="56">
         <v>0.55000000000000004</v>
@@ -19308,12 +19308,12 @@
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A226" s="69"/>
+      <c r="A226" s="77"/>
       <c r="B226" s="15">
         <v>13</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D226" s="56">
         <v>0.55000000000000004</v>
@@ -19377,12 +19377,12 @@
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A227" s="69"/>
+      <c r="A227" s="77"/>
       <c r="B227" s="15">
         <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D227" s="56">
         <v>0.55000000000000004</v>
@@ -19446,12 +19446,12 @@
       </c>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A228" s="69"/>
+      <c r="A228" s="77"/>
       <c r="B228" s="15">
         <v>15</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D228" s="56">
         <v>0.55000000000000004</v>
@@ -19515,12 +19515,12 @@
       </c>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A229" s="69"/>
+      <c r="A229" s="77"/>
       <c r="B229" s="15">
         <v>16</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D229" s="56">
         <v>0.55000000000000004</v>
@@ -19584,12 +19584,12 @@
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A230" s="69"/>
+      <c r="A230" s="77"/>
       <c r="B230" s="15">
         <v>17</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D230" s="56">
         <v>0.55000000000000004</v>
@@ -19653,12 +19653,12 @@
       </c>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A231" s="69"/>
+      <c r="A231" s="77"/>
       <c r="B231" s="15">
         <v>18</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D231" s="56">
         <v>0.55000000000000004</v>
@@ -19722,12 +19722,12 @@
       </c>
     </row>
     <row r="232" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="70"/>
+      <c r="A232" s="78"/>
       <c r="B232" s="37">
         <v>19</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D232" s="57">
         <v>0.55000000000000004</v>
@@ -20343,155 +20343,149 @@
       <c r="A416" s="30"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="65">
+      <c r="A417" s="70">
         <v>21</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="66"/>
+      <c r="A418" s="71"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="66"/>
+      <c r="A419" s="71"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="66"/>
+      <c r="A420" s="71"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="66"/>
+      <c r="A421" s="71"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="66"/>
+      <c r="A422" s="71"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="66"/>
+      <c r="A423" s="71"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="66"/>
+      <c r="A424" s="71"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="66"/>
+      <c r="A425" s="71"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="66"/>
+      <c r="A426" s="71"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="66"/>
+      <c r="A427" s="71"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="66"/>
+      <c r="A428" s="71"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="66"/>
+      <c r="A429" s="71"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="66"/>
+      <c r="A430" s="71"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="66"/>
+      <c r="A431" s="71"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="66"/>
+      <c r="A432" s="71"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="66"/>
+      <c r="A433" s="71"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="66"/>
+      <c r="A434" s="71"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="66"/>
+      <c r="A435" s="71"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="66"/>
+      <c r="A436" s="71"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="66"/>
+      <c r="A437" s="71"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="66"/>
+      <c r="A438" s="71"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="67"/>
+      <c r="A439" s="72"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="65">
+      <c r="A440" s="70">
         <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="66"/>
+      <c r="A441" s="71"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="66"/>
+      <c r="A442" s="71"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="66"/>
+      <c r="A443" s="71"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="66"/>
+      <c r="A444" s="71"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="66"/>
+      <c r="A445" s="71"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="66"/>
+      <c r="A446" s="71"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="66"/>
+      <c r="A447" s="71"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="66"/>
+      <c r="A448" s="71"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="66"/>
+      <c r="A449" s="71"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="66"/>
+      <c r="A450" s="71"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="66"/>
+      <c r="A451" s="71"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="66"/>
+      <c r="A452" s="71"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="66"/>
+      <c r="A453" s="71"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="66"/>
+      <c r="A454" s="71"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="66"/>
+      <c r="A455" s="71"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="66"/>
+      <c r="A456" s="71"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="66"/>
+      <c r="A457" s="71"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="66"/>
+      <c r="A458" s="71"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="66"/>
+      <c r="A459" s="71"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="66"/>
+      <c r="A460" s="71"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="66"/>
+      <c r="A461" s="71"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="67"/>
+      <c r="A462" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="A417:A439"/>
-    <mergeCell ref="A1:A4"/>
     <mergeCell ref="A440:A462"/>
     <mergeCell ref="A5:A23"/>
     <mergeCell ref="A24:A42"/>
@@ -20505,6 +20499,12 @@
     <mergeCell ref="A176:A194"/>
     <mergeCell ref="A195:A213"/>
     <mergeCell ref="A214:A232"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="A417:A439"/>
+    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:W232">
     <cfRule type="colorScale" priority="53">
